--- a/parsing examples/using excel/test.xlsx
+++ b/parsing examples/using excel/test.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
